--- a/0_Project/03_クラーク記念国際高校/Lesson/1001/20181001用_授業内容_クラーク記念国際高等学校.xlsx
+++ b/0_Project/03_クラーク記念国際高校/Lesson/1001/20181001用_授業内容_クラーク記念国際高等学校.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ﾀｲﾑｽｹｼﾞｭｰﾙ" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>5時間目</t>
   </si>
@@ -118,13 +118,6 @@
     </rPh>
     <rPh sb="5" eb="11">
       <t>ズイジコウシンヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>前回のおさらい</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカイノ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -391,10 +384,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・QiChat</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・外部データ取得</t>
     <rPh sb="1" eb="3">
       <t>ガイブ</t>
@@ -402,28 +391,115 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・センサー(人との距離)</t>
+    <t>・センサー(人との距離)/Memory関連</t>
     <rPh sb="6" eb="7">
       <t>ヒトトノ</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>キョリ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Memory機能について</t>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
+    <rPh sb="19" eb="21">
+      <t>カンレン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>insert/get</t>
+    <t>・QiChat</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>raise/subscribe</t>
+    <t>・QiChat アプリ開発</t>
+    <rPh sb="11" eb="13">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・TimeLine</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・TimeLineアプリ開発</t>
+    <rPh sb="12" eb="14">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Qichat機能説明</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基本形/省略可/ワイルドカード</t>
+    <rPh sb="0" eb="3">
+      <t>キホンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウリャクカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>複数対応/複数順番返答/ランダム返答/類義語</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>フクスウジュンバンヘントウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ルイギゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブルール/メモリイベントとの連携</t>
+    <rPh sb="15" eb="17">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>抑揚、他BOX連携</t>
+    <rPh sb="0" eb="2">
+      <t>ヨクヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリ構想</t>
+    <rPh sb="3" eb="5">
+      <t>コウソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -945,16 +1021,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -963,7 +1039,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>43353</v>
+        <v>43374</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -975,19 +1051,17 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1007,93 +1081,158 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>3.4722222222222224E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6">
         <v>0.57291666666666663</v>
       </c>
       <c r="D5" s="6">
         <f>C5+A5</f>
-        <v>0.60763888888888884</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E5" s="2"/>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="6">
+        <f>D5</f>
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="D6" s="6">
+        <f>A6+C6</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" ref="C7:C9" si="0">D6</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:D9" si="1">A7+C7</f>
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5972222222222221</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5972222222222221</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.60763888888888873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>6.9444444444444441E-3</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>3.472222222222222E-3</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C13" s="6">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="6">
-        <f>C10+A10</f>
-        <v>0.62152777777777779</v>
+      <c r="D13" s="6">
+        <f>C13+A13</f>
+        <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1.3888888888888888E-2</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>2.0833333333333332E-2</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>69</v>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
       </c>
-      <c r="C11" s="6">
-        <f>D10</f>
-        <v>0.62152777777777779</v>
+      <c r="C14" s="6">
+        <f>D13</f>
+        <v>0.61805555555555558</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" ref="D11" si="0">C11+A11</f>
-        <v>0.63541666666666663</v>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14" si="2">C14+A14</f>
+        <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>1.3888888888888888E-2</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1.0416666666666666E-2</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>70</v>
+      <c r="B15" s="4" t="s">
+        <v>77</v>
       </c>
-      <c r="C12" s="6">
-        <f>D11</f>
-        <v>0.63541666666666663</v>
+      <c r="C15" s="6">
+        <f>D14</f>
+        <v>0.63888888888888895</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" ref="D12" si="1">C12+A12</f>
-        <v>0.64930555555555547</v>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15" si="3">C15+A15</f>
+        <v>0.64930555555555558</v>
       </c>
     </row>
   </sheetData>
@@ -1106,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.85546875" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1854,7 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -1891,7 +2030,7 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1900,10 +2039,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1939,10 +2078,10 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1971,7 +2110,7 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1981,10 +2120,10 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2021,10 +2160,10 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2053,7 +2192,7 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2063,10 +2202,10 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2102,10 +2241,10 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2134,7 +2273,7 @@
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2144,7 +2283,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="25" t="s">
         <v>21</v>
@@ -2183,7 +2322,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="25" t="s">
         <v>21</v>
@@ -2215,7 +2354,7 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2225,7 +2364,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K35" s="25" t="s">
         <v>21</v>
@@ -2264,7 +2403,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K36" s="25" t="s">
         <v>21</v>
@@ -2296,7 +2435,7 @@
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2306,10 +2445,10 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2345,10 +2484,10 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2376,7 +2515,7 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2386,10 +2525,10 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -2424,10 +2563,10 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2456,7 +2595,7 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2466,10 +2605,10 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -2505,10 +2644,10 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -2536,7 +2675,7 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2546,10 +2685,10 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -2584,10 +2723,10 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2615,7 +2754,7 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2625,10 +2764,10 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2664,10 +2803,10 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2696,7 +2835,7 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2706,10 +2845,10 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -2737,10 +2876,10 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2760,7 +2899,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2770,10 +2909,10 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -2800,11 +2939,11 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -30030,7 +30169,7 @@
   <sheetData>
     <row r="3" spans="3:10" ht="23" x14ac:dyDescent="0.25">
       <c r="C3" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -30046,13 +30185,13 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="16" x14ac:dyDescent="0.2">
@@ -30064,16 +30203,16 @@
         <v>43231</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="16" x14ac:dyDescent="0.2">
@@ -30085,13 +30224,13 @@
         <v>43245</v>
       </c>
       <c r="H7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.15">
@@ -30103,7 +30242,7 @@
         <v>43266</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.15">
@@ -30135,7 +30274,7 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
@@ -30242,7 +30381,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C25" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="21"/>
@@ -30274,18 +30413,18 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C29" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C30" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.15">
@@ -30295,7 +30434,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/0_Project/03_クラーク記念国際高校/Lesson/1001/20181001用_授業内容_クラーク記念国際高等学校.xlsx
+++ b/0_Project/03_クラーク記念国際高校/Lesson/1001/20181001用_授業内容_クラーク記念国際高等学校.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>5時間目</t>
   </si>
@@ -331,31 +331,6 @@
     <t>　2019年2月18日(月)</t>
   </si>
   <si>
-    <t>アプリ発表</t>
-    <rPh sb="3" eb="5">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリ開発</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリ開発</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>企画・設計</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・NAO×HTML連携</t>
     <rPh sb="9" eb="11">
       <t>レンケイ</t>
@@ -404,18 +379,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・QiChat</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・QiChat アプリ開発</t>
     <rPh sb="11" eb="13">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・TimeLine</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -498,6 +465,47 @@
   <si>
     <t>発表</t>
     <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・QiChat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・TimeLine</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・python</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・企画・設計</t>
+    <rPh sb="1" eb="3">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アプリ開発</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アプリ開発</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アプリ開発</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アプリ発表</t>
+    <rPh sb="4" eb="6">
       <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -653,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -676,12 +684,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,12 +806,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,7 +1177,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6">
         <v>0.57291666666666663</v>
@@ -1100,7 +1193,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6">
         <f>D5</f>
@@ -1117,7 +1210,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" ref="C7:C9" si="0">D6</f>
@@ -1134,7 +1227,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
@@ -1151,7 +1244,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
@@ -1193,7 +1286,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C13" s="6">
         <v>0.61458333333333337</v>
@@ -1208,7 +1301,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6">
         <f>D13</f>
@@ -1224,7 +1317,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6">
         <f>D14</f>
@@ -1245,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="AA40" sqref="AA40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.85546875" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1343,17 +1436,17 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1373,17 +1466,17 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1403,17 +1496,17 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1433,17 +1526,17 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1463,17 +1556,17 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1493,17 +1586,17 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1523,17 +1616,17 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1553,17 +1646,17 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1583,17 +1676,17 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1613,17 +1706,17 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1643,17 +1736,17 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1673,17 +1766,17 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1703,17 +1796,17 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1733,17 +1826,17 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1763,17 +1856,17 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1793,17 +1886,17 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1823,17 +1916,17 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1853,17 +1946,17 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>60</v>
+      <c r="A21" s="26" t="s">
+        <v>56</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1883,17 +1976,17 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1913,17 +2006,17 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2029,31 +2122,33 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>62</v>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>61</v>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29" t="s">
+        <v>57</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -2070,29 +2165,31 @@
       <c r="AR27" s="25"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="24" t="s">
-        <v>63</v>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K28" s="25" t="s">
-        <v>65</v>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29" t="s">
+        <v>61</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -2109,32 +2206,33 @@
       <c r="AR28" s="25"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>62</v>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K29" s="25" t="s">
-        <v>66</v>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29" t="s">
+        <v>72</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -2151,30 +2249,31 @@
       <c r="AR29" s="25"/>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="24" t="s">
-        <v>63</v>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>67</v>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29" t="s">
+        <v>62</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -2191,32 +2290,33 @@
       <c r="AR30" s="25"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>62</v>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>68</v>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29" t="s">
+        <v>73</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -2233,29 +2333,31 @@
       <c r="AR31" s="25"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="24" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -2272,32 +2374,33 @@
       <c r="AR32" s="25"/>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
-        <v>62</v>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K33" s="25" t="s">
-        <v>21</v>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29" t="s">
+        <v>74</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -2314,29 +2417,31 @@
       <c r="AR33" s="25"/>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="24" t="s">
-        <v>63</v>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K34" s="25" t="s">
-        <v>21</v>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29" t="s">
+        <v>74</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -2353,32 +2458,33 @@
       <c r="AR34" s="25"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>62</v>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>21</v>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29" t="s">
+        <v>74</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -2395,29 +2501,31 @@
       <c r="AR35" s="25"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="24" t="s">
-        <v>63</v>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K36" s="25" t="s">
-        <v>21</v>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29" t="s">
+        <v>74</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -2434,32 +2542,33 @@
       <c r="AR36" s="25"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>62</v>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K37" s="25" t="s">
-        <v>60</v>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29" t="s">
+        <v>56</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -2476,29 +2585,31 @@
       <c r="AR37" s="25"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="24" t="s">
-        <v>63</v>
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K38" s="25" t="s">
-        <v>60</v>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29" t="s">
+        <v>56</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -2514,32 +2625,33 @@
       <c r="AR38" s="25"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>62</v>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>60</v>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29" t="s">
+        <v>56</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -2555,29 +2667,31 @@
       <c r="AR39" s="25"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="24" t="s">
-        <v>63</v>
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K40" s="25" t="s">
-        <v>60</v>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29" t="s">
+        <v>56</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -2594,32 +2708,33 @@
       <c r="AR40" s="25"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>62</v>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K41" s="25" t="s">
-        <v>64</v>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29" t="s">
+        <v>60</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -2635,30 +2750,31 @@
       <c r="AR41" s="25"/>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="24" t="s">
-        <v>63</v>
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K42" s="25" t="s">
-        <v>64</v>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29" t="s">
+        <v>60</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -2674,32 +2790,33 @@
       <c r="AR42" s="25"/>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
-        <v>62</v>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>59</v>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29" t="s">
+        <v>75</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -2715,29 +2832,31 @@
       <c r="AR43" s="25"/>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -2753,32 +2872,33 @@
       <c r="AR44" s="25"/>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>62</v>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>57</v>
+      <c r="J45" s="28"/>
+      <c r="K45" s="29" t="s">
+        <v>76</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -2795,29 +2915,31 @@
       <c r="AR45" s="25"/>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="24" t="s">
-        <v>63</v>
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>57</v>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29" t="s">
+        <v>77</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -2834,32 +2956,33 @@
       <c r="AR46" s="25"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -2867,30 +2990,31 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="24" t="s">
-        <v>63</v>
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>58</v>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29" t="s">
+        <v>78</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -2898,32 +3022,33 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>62</v>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>56</v>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29" t="s">
+        <v>79</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -2931,30 +3056,31 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="24" t="s">
-        <v>63</v>
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="28" t="s">
+        <v>59</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2" t="s">
-        <v>56</v>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29" t="s">
+        <v>79</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -29552,7 +29678,67 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="80">
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:H50"/>
+    <mergeCell ref="K46:U46"/>
+    <mergeCell ref="K47:U47"/>
+    <mergeCell ref="K48:U48"/>
+    <mergeCell ref="K49:U49"/>
+    <mergeCell ref="K50:U50"/>
+    <mergeCell ref="K41:U41"/>
+    <mergeCell ref="K42:U42"/>
+    <mergeCell ref="K43:U43"/>
+    <mergeCell ref="K44:U44"/>
+    <mergeCell ref="K45:U45"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K27:U27"/>
+    <mergeCell ref="K28:U28"/>
+    <mergeCell ref="K29:U29"/>
+    <mergeCell ref="K30:U30"/>
+    <mergeCell ref="K31:U31"/>
+    <mergeCell ref="K32:U32"/>
+    <mergeCell ref="K33:U33"/>
+    <mergeCell ref="K34:U34"/>
+    <mergeCell ref="K35:U35"/>
+    <mergeCell ref="K36:U36"/>
+    <mergeCell ref="K37:U37"/>
+    <mergeCell ref="K38:U38"/>
+    <mergeCell ref="K39:U39"/>
+    <mergeCell ref="K40:U40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A41:H42"/>
+    <mergeCell ref="A43:H44"/>
+    <mergeCell ref="A45:H46"/>
+    <mergeCell ref="A37:H38"/>
+    <mergeCell ref="A39:H40"/>
+    <mergeCell ref="A31:H32"/>
+    <mergeCell ref="A33:H34"/>
+    <mergeCell ref="A35:H36"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="A29:H30"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A4:I4"/>
@@ -29583,7 +29769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="140" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="83" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:I8"/>
     </sheetView>
   </sheetViews>
@@ -30168,15 +30354,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="23" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C4" s="11"/>
